--- a/data/case1/14/Q1_14.xlsx
+++ b/data/case1/14/Q1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.18090154911376288</v>
+        <v>0.21729837854633161</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999722819553</v>
+        <v>-0.0059999999616131561</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.003999999976665336</v>
+        <v>-0.0039999999661350927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999568194369</v>
+        <v>-0.0079999999378230768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999771135322</v>
+        <v>-0.0029999999656800114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999764177545</v>
+        <v>-0.0019999999618800501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.036731926992218611</v>
+        <v>-0.009999999912023938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999376674253</v>
+        <v>-0.0099999999123117078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029653265180450195</v>
+        <v>0.055239506568542041</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999683939507</v>
+        <v>-0.0019999999581035155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.014954572880190753</v>
+        <v>-0.0029999999515375464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999609981458</v>
+        <v>-0.0034999999476328369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.003499999958330946</v>
+        <v>-0.012786368774028389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999374775754</v>
+        <v>-0.0079999999130215826</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996818134207</v>
+        <v>-0.00099999995581523393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999632389631</v>
+        <v>-0.0019999999490094567</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999625408549</v>
+        <v>-0.0019999999480209141</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999534350295</v>
+        <v>-0.0039999999353890203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999807349695</v>
+        <v>-0.0039999999728750346</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999760063076</v>
+        <v>-0.059533955893755319</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.033295789383649854</v>
+        <v>-0.0039999999581210588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999747024617</v>
+        <v>-0.0039999999578590462</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999707841525</v>
+        <v>-0.0049999999581844534</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999901471277</v>
+        <v>-0.01999999986113199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999900170984</v>
+        <v>-0.019999999859209971</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999741215362</v>
+        <v>-0.0024999999572870024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999732213674</v>
+        <v>-0.002499999955343668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999716864281</v>
+        <v>-0.0019999999485360576</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.039944951243186644</v>
+        <v>-0.0069999999108141253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.05999999970802028</v>
+        <v>-0.059999999578964847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999421010983</v>
+        <v>-0.0069999999078049768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999284268171</v>
+        <v>0.016260856065867912</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999550293097</v>
+        <v>-0.0039999999265916131</v>
       </c>
     </row>
   </sheetData>
